--- a/datafiles/devOpsMgtData.xlsx
+++ b/datafiles/devOpsMgtData.xlsx
@@ -4,18 +4,21 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12540" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="getDC" sheetId="31" r:id="rId1"/>
     <sheet name="editDC" sheetId="32" r:id="rId2"/>
+    <sheet name="getNode" sheetId="33" r:id="rId3"/>
+    <sheet name="getExnet" sheetId="34" r:id="rId4"/>
+    <sheet name="getSysnet" sheetId="35" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="32">
   <si>
     <t>test_num</t>
   </si>
@@ -128,6 +131,24 @@
   </si>
   <si>
     <t>参数错误</t>
+  </si>
+  <si>
+    <t>运维管理-节点管理-获取节点列表-缺少token</t>
+  </si>
+  <si>
+    <t>运维管理-节点管理-获取节点列表-成功</t>
+  </si>
+  <si>
+    <t>运维管理-基础网络-获取外部网络列表-缺少token</t>
+  </si>
+  <si>
+    <t>运维管理-基础网络-获取外部网络列表-成功</t>
+  </si>
+  <si>
+    <t>运维管理-基础网络-获取系统网络列表-缺少token</t>
+  </si>
+  <si>
+    <t>运维管理-基础网络-获取系统网络列表-成功</t>
   </si>
 </sst>
 </file>
@@ -1237,7 +1258,7 @@
   <sheetPr/>
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -1354,4 +1375,235 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="5"/>
+  <cols>
+    <col min="2" max="2" width="37.5" customWidth="1"/>
+    <col min="3" max="3" width="47.875" customWidth="1"/>
+    <col min="5" max="5" width="29.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" spans="1:6">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" s="2" customFormat="1" ht="27" spans="1:6">
+      <c r="A2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="2">
+        <v>1005</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" s="2" customFormat="1" ht="27" spans="1:5">
+      <c r="A3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0</v>
+      </c>
+      <c r="E3" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="5"/>
+  <cols>
+    <col min="2" max="2" width="56.125" customWidth="1"/>
+    <col min="3" max="3" width="47.875" customWidth="1"/>
+    <col min="5" max="5" width="29.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" spans="1:6">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" s="2" customFormat="1" ht="27" spans="1:6">
+      <c r="A2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="2">
+        <v>1005</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" s="2" customFormat="1" ht="27" spans="1:5">
+      <c r="A3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0</v>
+      </c>
+      <c r="E3" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="5"/>
+  <cols>
+    <col min="2" max="2" width="56.125" customWidth="1"/>
+    <col min="3" max="3" width="47.875" customWidth="1"/>
+    <col min="5" max="5" width="29.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" spans="1:6">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" s="2" customFormat="1" ht="27" spans="1:6">
+      <c r="A2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="2">
+        <v>1005</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" s="2" customFormat="1" ht="27" spans="1:5">
+      <c r="A3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0</v>
+      </c>
+      <c r="E3" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>